--- a/WorkDiary/20180925-20180930.xlsx
+++ b/WorkDiary/20180925-20180930.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,7 +69,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、完成异步流水Terminal端源码学习及整理</t>
+    <t>1、完成异步流水Terminal端源码学习及整理
+2、同步流水Journal端源码学习及整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、异步流水Agent端源码学习及整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、异步流水Journal端源码学习及整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +493,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,8 +553,12 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
